--- a/data/faktenblatttabellen_2020-11-22.xlsx
+++ b/data/faktenblatttabellen_2020-11-22.xlsx
@@ -1,5 +1,21 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="Testungen" sheetId="1" state="visible" r:id="rId1"/><sheet name="R-Wert & 7-Tage-Inzidenz" sheetId="2" state="visible" r:id="rId2"/><sheet name="Intensivbetten" sheetId="3" state="visible" r:id="rId3"/><sheet name="COVID-19-Erkrankte" sheetId="4" state="visible" r:id="rId4"/><sheet name="Todesfälle & Fallsterblichkeit" sheetId="5" state="visible" r:id="rId5"/><sheet name="Vorwarnzeit" sheetId="6" state="visible" r:id="rId6"/><sheet name="Regionale Daten" sheetId="7" state="visible" r:id="rId7"/><sheet name="Internationaler Vergleich" sheetId="8" state="visible" r:id="rId8"/></sheets></workbook>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Testungen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="R-Wert und 7-Tage-Inzidenz" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Intensivbetten" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="COVID-19-Erkrankte" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Todesfälle und Fallsterblichkei" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Vorwarnzeit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Regionale Daten" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Internationaler Vergleich" sheetId="8" state="visible" r:id="rId8"/>
+  </sheets>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,10 +931,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.0033</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.0033</v>
       </c>
     </row>
     <row r="3">
@@ -1432,7 +1448,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.0033</v>
       </c>
       <c r="C2" t="n">
         <v>153</v>
@@ -1449,7 +1465,7 @@
         <v>109</v>
       </c>
       <c r="B3" t="n">
-        <v>1.01</v>
+        <v>1.0142</v>
       </c>
       <c r="C3" t="n">
         <v>147</v>
@@ -1466,7 +1482,7 @@
         <v>110</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>1.0001</v>
       </c>
       <c r="C4" t="n">
         <v>184</v>
@@ -1483,7 +1499,7 @@
         <v>111</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9999</v>
       </c>
       <c r="C5" t="n">
         <v>230</v>
@@ -1500,7 +1516,7 @@
         <v>112</v>
       </c>
       <c r="B6" t="n">
-        <v>1.15</v>
+        <v>1.1505</v>
       </c>
       <c r="C6" t="n">
         <v>117</v>
@@ -1517,7 +1533,7 @@
         <v>113</v>
       </c>
       <c r="B7" t="n">
-        <v>0.91</v>
+        <v>0.9143</v>
       </c>
       <c r="C7" t="n">
         <v>147</v>
@@ -1534,7 +1550,7 @@
         <v>114</v>
       </c>
       <c r="B8" t="n">
-        <v>0.92</v>
+        <v>0.9159</v>
       </c>
       <c r="C8" t="n">
         <v>132</v>
@@ -1551,7 +1567,7 @@
         <v>115</v>
       </c>
       <c r="B9" t="n">
-        <v>1.01</v>
+        <v>1.0059</v>
       </c>
       <c r="C9" t="n">
         <v>181</v>
@@ -1568,7 +1584,7 @@
         <v>116</v>
       </c>
       <c r="B10" t="n">
-        <v>1.03</v>
+        <v>1.0278</v>
       </c>
       <c r="C10" t="n">
         <v>47</v>
@@ -1585,7 +1601,7 @@
         <v>117</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.9962</v>
       </c>
       <c r="C11" t="n">
         <v>105</v>
@@ -1602,7 +1618,7 @@
         <v>118</v>
       </c>
       <c r="B12" t="n">
-        <v>0.96</v>
+        <v>0.9612</v>
       </c>
       <c r="C12" t="n">
         <v>166</v>
@@ -1619,7 +1635,7 @@
         <v>119</v>
       </c>
       <c r="B13" t="n">
-        <v>0.99</v>
+        <v>0.9929</v>
       </c>
       <c r="C13" t="n">
         <v>141</v>
@@ -1636,7 +1652,7 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>0.89</v>
+        <v>0.8871</v>
       </c>
       <c r="C14" t="n">
         <v>126</v>
@@ -1653,7 +1669,7 @@
         <v>121</v>
       </c>
       <c r="B15" t="n">
-        <v>1.09</v>
+        <v>1.0904</v>
       </c>
       <c r="C15" t="n">
         <v>221</v>
@@ -1670,7 +1686,7 @@
         <v>122</v>
       </c>
       <c r="B16" t="n">
-        <v>1.14</v>
+        <v>1.139</v>
       </c>
       <c r="C16" t="n">
         <v>83</v>
@@ -1687,7 +1703,7 @@
         <v>123</v>
       </c>
       <c r="B17" t="n">
-        <v>0.94</v>
+        <v>0.9426</v>
       </c>
       <c r="C17" t="n">
         <v>47</v>
@@ -1704,7 +1720,7 @@
         <v>124</v>
       </c>
       <c r="B18" t="n">
-        <v>1.26</v>
+        <v>1.2628</v>
       </c>
       <c r="C18" t="n">
         <v>134</v>

--- a/data/faktenblatttabellen_2020-11-22.xlsx
+++ b/data/faktenblatttabellen_2020-11-22.xlsx
@@ -931,10 +931,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0033</v>
+        <v>1.0603</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0033</v>
+        <v>1.0118</v>
       </c>
     </row>
     <row r="3">
@@ -1448,7 +1448,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0033</v>
+        <v>1.0118</v>
       </c>
       <c r="C2" t="n">
         <v>153</v>
@@ -1465,7 +1465,7 @@
         <v>109</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0142</v>
+        <v>1.0085</v>
       </c>
       <c r="C3" t="n">
         <v>147</v>
@@ -1482,7 +1482,7 @@
         <v>110</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0001</v>
+        <v>0.994</v>
       </c>
       <c r="C4" t="n">
         <v>184</v>
@@ -1499,7 +1499,7 @@
         <v>111</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9999</v>
+        <v>1.0705</v>
       </c>
       <c r="C5" t="n">
         <v>230</v>
@@ -1516,7 +1516,7 @@
         <v>112</v>
       </c>
       <c r="B6" t="n">
-        <v>1.1505</v>
+        <v>1.1545</v>
       </c>
       <c r="C6" t="n">
         <v>117</v>
@@ -1533,7 +1533,7 @@
         <v>113</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9143</v>
+        <v>0.9792</v>
       </c>
       <c r="C7" t="n">
         <v>147</v>
@@ -1550,7 +1550,7 @@
         <v>114</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9159</v>
+        <v>0.9117</v>
       </c>
       <c r="C8" t="n">
         <v>132</v>
@@ -1567,7 +1567,7 @@
         <v>115</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0059</v>
+        <v>1.0155</v>
       </c>
       <c r="C9" t="n">
         <v>181</v>
@@ -1584,7 +1584,7 @@
         <v>116</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0278</v>
+        <v>1.0662</v>
       </c>
       <c r="C10" t="n">
         <v>47</v>
@@ -1601,7 +1601,7 @@
         <v>117</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9962</v>
+        <v>0.9766</v>
       </c>
       <c r="C11" t="n">
         <v>105</v>
@@ -1618,7 +1618,7 @@
         <v>118</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9612</v>
+        <v>1.0048</v>
       </c>
       <c r="C12" t="n">
         <v>166</v>
@@ -1635,7 +1635,7 @@
         <v>119</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9929</v>
+        <v>1.0007</v>
       </c>
       <c r="C13" t="n">
         <v>141</v>
@@ -1652,7 +1652,7 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8871</v>
+        <v>0.8337</v>
       </c>
       <c r="C14" t="n">
         <v>126</v>
@@ -1669,7 +1669,7 @@
         <v>121</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0904</v>
+        <v>1.0896</v>
       </c>
       <c r="C15" t="n">
         <v>221</v>
@@ -1686,7 +1686,7 @@
         <v>122</v>
       </c>
       <c r="B16" t="n">
-        <v>1.139</v>
+        <v>1.0772</v>
       </c>
       <c r="C16" t="n">
         <v>83</v>
@@ -1703,7 +1703,7 @@
         <v>123</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9426</v>
+        <v>0.9129</v>
       </c>
       <c r="C17" t="n">
         <v>47</v>
@@ -1720,7 +1720,7 @@
         <v>124</v>
       </c>
       <c r="B18" t="n">
-        <v>1.2628</v>
+        <v>1.1528</v>
       </c>
       <c r="C18" t="n">
         <v>134</v>
